--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,37 +40,40 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>falling</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>lower</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>emergency</t>
@@ -91,15 +94,21 @@
     <t>oil</t>
   </si>
   <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -109,94 +118,103 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>free</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -554,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.868421052631579</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>0.9491525423728814</v>
@@ -673,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>0.9347826086956522</v>
@@ -723,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.815068493150685</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C6">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,16 +862,16 @@
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8372093023255814</v>
+        <v>0.8429319371727748</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>322</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>323</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6440677966101694</v>
+        <v>0.7</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.835509138381201</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6031746031746031</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C9">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5968992248062015</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="C10">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D10">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8275862068965517</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5882352941176471</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.8113207547169812</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5302013422818792</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C12">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4464285714285715</v>
+        <v>0.5167785234899329</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,37 +1191,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3866666666666667</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>29</v>
       </c>
-      <c r="D14">
-        <v>29</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>46</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7746478873239436</v>
+        <v>0.7890625</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1291,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3506493506493507</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,16 +1312,16 @@
         <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7734375</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L16">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="M16">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,13 +1341,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3134920634920635</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C17">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1365,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,13 +1391,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2680965147453083</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>273</v>
+        <v>172</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1415,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1423,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1566666666666667</v>
+        <v>0.2466487935656836</v>
       </c>
       <c r="C19">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D19">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1441,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.7291666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1465,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1473,37 +1491,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.03972366148531951</v>
+        <v>0.13</v>
       </c>
       <c r="C20">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D20">
+        <v>39</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>261</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E20">
-        <v>0.06</v>
-      </c>
-      <c r="F20">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1112</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K20">
-        <v>0.7222222222222222</v>
+        <v>0.7</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1515,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1523,37 +1541,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03466148364107548</v>
+        <v>0.08532423208191127</v>
       </c>
       <c r="C21">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>2980</v>
+        <v>268</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21">
+        <v>0.6714285714285714</v>
+      </c>
+      <c r="L21">
         <v>47</v>
       </c>
-      <c r="K21">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L21">
-        <v>220</v>
-      </c>
       <c r="M21">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1565,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>120</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1573,141 +1591,213 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.02646502835538752</v>
+        <v>0.03730132987349984</v>
       </c>
       <c r="C22">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="D22">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E22">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="F22">
-        <v>0.6699999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2060</v>
+        <v>2968</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.6360544217687075</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.0329004329004329</v>
+      </c>
+      <c r="C23">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <v>0.14</v>
+      </c>
+      <c r="F23">
+        <v>0.86</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1117</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K23">
+        <v>0.6647058823529411</v>
+      </c>
+      <c r="L23">
+        <v>226</v>
+      </c>
+      <c r="M23">
+        <v>226</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.02173913043478261</v>
+      </c>
+      <c r="C24">
+        <v>46</v>
+      </c>
+      <c r="D24">
+        <v>73</v>
+      </c>
+      <c r="E24">
+        <v>0.37</v>
+      </c>
+      <c r="F24">
+        <v>0.63</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2070</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24">
+        <v>0.6485355648535565</v>
+      </c>
+      <c r="L24">
+        <v>155</v>
+      </c>
+      <c r="M24">
+        <v>155</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.009618467457518435</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>112</v>
+      </c>
+      <c r="E25">
+        <v>0.73</v>
+      </c>
+      <c r="F25">
+        <v>0.27</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3089</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25">
         <v>0.6274509803921569</v>
       </c>
-      <c r="L23">
+      <c r="L25">
         <v>32</v>
       </c>
-      <c r="M23">
+      <c r="M25">
         <v>32</v>
       </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>0.62</v>
-      </c>
-      <c r="L24">
-        <v>31</v>
-      </c>
-      <c r="M24">
-        <v>31</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25">
-        <v>0.5899581589958159</v>
-      </c>
-      <c r="L25">
-        <v>141</v>
-      </c>
-      <c r="M25">
-        <v>141</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.5851063829787234</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="L26">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="M26">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1719,21 +1809,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.5692307692307692</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1745,21 +1835,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.5571428571428572</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1771,21 +1861,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.550561797752809</v>
+        <v>0.58</v>
       </c>
       <c r="L29">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1797,21 +1887,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.4098360655737705</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1823,21 +1913,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.3461538461538461</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1849,111 +1939,215 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.07971014492753623</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>381</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.0289532293986637</v>
+        <v>0.390625</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N33">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>872</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.02801384954359459</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L34">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="N34">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>3088</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35">
+        <v>0.09446254071661238</v>
+      </c>
+      <c r="L35">
+        <v>29</v>
+      </c>
+      <c r="M35">
+        <v>30</v>
+      </c>
+      <c r="N35">
+        <v>0.97</v>
+      </c>
+      <c r="O35">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36">
+        <v>0.06763285024154589</v>
+      </c>
+      <c r="L36">
+        <v>28</v>
+      </c>
+      <c r="M36">
+        <v>30</v>
+      </c>
+      <c r="N36">
+        <v>0.93</v>
+      </c>
+      <c r="O36">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37">
+        <v>0.02783964365256125</v>
+      </c>
+      <c r="L37">
+        <v>25</v>
+      </c>
+      <c r="M37">
+        <v>28</v>
+      </c>
+      <c r="N37">
+        <v>0.89</v>
+      </c>
+      <c r="O37">
+        <v>0.11</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38">
+        <v>0.02585935036266162</v>
+      </c>
+      <c r="L38">
+        <v>82</v>
+      </c>
+      <c r="M38">
+        <v>112</v>
+      </c>
+      <c r="N38">
+        <v>0.73</v>
+      </c>
+      <c r="O38">
+        <v>0.27</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39">
+        <v>0.0128755364806867</v>
+      </c>
+      <c r="L39">
         <v>27</v>
       </c>
-      <c r="K35">
-        <v>0.01293723047436512</v>
-      </c>
-      <c r="L35">
-        <v>27</v>
-      </c>
-      <c r="M35">
-        <v>83</v>
-      </c>
-      <c r="N35">
-        <v>0.33</v>
-      </c>
-      <c r="O35">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>2060</v>
+      <c r="M39">
+        <v>73</v>
+      </c>
+      <c r="N39">
+        <v>0.37</v>
+      </c>
+      <c r="O39">
+        <v>0.63</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2070</v>
       </c>
     </row>
   </sheetData>
